--- a/tests/testdata/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/px-files/sitemaps/sitemap.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/preset-pickles2-clover/px-files/sitemaps/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C233B0-7F1C-8345-8695-895BF65E0C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8</t>
-  </si>
-  <si>
-    <t>Exported: 2017-12-16 17:21:55</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.2.2</t>
+  </si>
+  <si>
+    <t>「px2-blog-kit」 サイトマップ</t>
+  </si>
+  <si>
+    <t>Exported: 2023-03-18 23:14:59</t>
   </si>
   <si>
     <t>ページID</t>
@@ -52,6 +50,9 @@
     <t>コンテンツファイルの格納先</t>
   </si>
   <si>
+    <t>論理構造上のパス</t>
+  </si>
+  <si>
     <t>一覧表示フラグ</t>
   </si>
   <si>
@@ -103,6 +104,9 @@
     <t>content</t>
   </si>
   <si>
+    <t>logical_path</t>
+  </si>
+  <si>
     <t>list_flg</t>
   </si>
   <si>
@@ -136,86 +140,71 @@
     <t>/</t>
   </si>
   <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>記事一覧</t>
+  </si>
+  <si>
+    <t>/articles/{*}</t>
+  </si>
+  <si>
+    <t>/articles/index.html</t>
+  </si>
+  <si>
     <t>EndOfData</t>
-  </si>
-  <si>
-    <t>記事一覧</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">キジイチラｎ </t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>/articles/{*}</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>このブログについて</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>/about/</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>サイトマップ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>top</t>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Source Han Sans JP"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -239,18 +228,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFcccccc"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FFdddddd"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -259,101 +248,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF666666"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="10">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -643,32 +578,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="11" width="2" customWidth="1"/>
-    <col min="12" max="12" width="40" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="18" width="30" customWidth="1"/>
-    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="true" style="0"/>
+    <col min="2" max="2" width="3" customWidth="true" style="0"/>
+    <col min="3" max="3" width="3" customWidth="true" style="0"/>
+    <col min="4" max="4" width="3" customWidth="true" style="0"/>
+    <col min="5" max="5" width="3" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+    <col min="7" max="7" width="2" customWidth="true" style="0"/>
+    <col min="8" max="8" width="2" customWidth="true" style="0"/>
+    <col min="9" max="9" width="2" customWidth="true" style="0"/>
+    <col min="10" max="10" width="2" customWidth="true" style="0"/>
+    <col min="11" max="11" width="40" customWidth="true" style="0"/>
+    <col min="12" max="12" width="20" customWidth="true" style="0"/>
+    <col min="14" max="14" width="3" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9" customWidth="true" style="0"/>
+    <col min="18" max="18" width="30" customWidth="true" style="0"/>
+    <col min="17" max="17" width="30" customWidth="true" style="0"/>
+    <col min="16" max="16" width="3" customWidth="true" style="0"/>
+    <col min="19" max="19" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="10" customHeight="1">
+    <row r="1" spans="1:22" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,262 +639,244 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="38">
-      <c r="A3" s="12" t="s">
-        <v>43</v>
+    <row r="3" spans="1:22">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="N7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="O7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="P7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="Q7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="R7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="S7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="T7" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="3"/>
+      <c r="A9"/>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3">
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P9" s="3"/>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="13"/>
+      <c r="A10"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="10" t="s">
-        <v>41</v>
+      <c r="C10" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13">
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="O10"/>
+      <c r="P10"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="13">
+      <c r="S10">
         <v>1</v>
       </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
     </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="3">
-        <v>1</v>
-      </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-    </row>
-    <row r="14" spans="1:22" ht="5" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
+    <row r="13" spans="1:22" customHeight="1" ht="5">
+      <c r="A13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
+  <mergeCells>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/tests/testdata/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/px-files/sitemaps/sitemap.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.2.2</t>
   </si>
@@ -23,7 +23,7 @@
     <t>「px2-blog-kit」 サイトマップ</t>
   </si>
   <si>
-    <t>Exported: 2023-03-18 23:14:59</t>
+    <t>Exported: 2023-03-20 22:37:41</t>
   </si>
   <si>
     <t>ページID</t>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>/articles/index.html</t>
+  </si>
+  <si>
+    <t>記事一覧2</t>
+  </si>
+  <si>
+    <t>/articles2/{*}</t>
+  </si>
+  <si>
+    <t>/articles2/index.html</t>
   </si>
   <si>
     <t>EndOfData</t>
@@ -582,13 +591,13 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
+      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -835,31 +844,65 @@
       <c r="U10"/>
       <c r="V10"/>
     </row>
-    <row r="13" spans="1:22" customHeight="1" ht="5">
-      <c r="A13" s="9" t="s">
+    <row r="11" spans="1:22">
+      <c r="A11"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+    </row>
+    <row r="14" spans="1:22" customHeight="1" ht="5">
+      <c r="A14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
